--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/choerodon-foundation-service/src/main/resources/script/db/data_init/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D895A432-0287-B344-A787-D47F30642D33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6011C830-2C84-DE45-B9A9-53AE4E4C98EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="135">
   <si>
     <t>object_scheme_field</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2034,7 +2034,7 @@
   <dimension ref="A1:JD35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -3172,21 +3172,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2E0AA7-FB61-FE4F-9DAD-73A02D99AA08}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="6" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3194,8 +3194,9 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3203,8 +3204,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3212,8 +3214,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3221,8 +3224,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3230,8 +3234,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3239,8 +3244,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3254,10 +3260,13 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3271,8 +3280,11 @@
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3286,8 +3298,11 @@
       <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3295,8 +3310,9 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3304,8 +3320,9 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3313,8 +3330,9 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3322,8 +3340,9 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3331,8 +3350,9 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3340,8 +3360,9 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3349,8 +3370,9 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3358,8 +3380,9 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3367,8 +3390,9 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3376,8 +3400,9 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3385,89 +3410,99 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="17">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="17">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="17">
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="17">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="17">
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="17">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="17">
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="17">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="17">
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="17">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="17">
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="17">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="17">
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="17">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="17">
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="17">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="17">
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="17">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3475,6 +3510,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3986,7 +4022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0FEDC-CF1E-FE42-A550-B45169AB192F}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6011C830-2C84-DE45-B9A9-53AE4E4C98EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FC939239-244B-D64E-AAF0-0DC8D72480E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="135">
   <si>
     <t>object_scheme_field</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3174,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2E0AA7-FB61-FE4F-9DAD-73A02D99AA08}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3520,20 +3520,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED68D9B-63BE-8049-9AD5-C3BE6E35305D}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="6" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3542,8 +3542,9 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3552,8 +3553,9 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3562,8 +3564,9 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3572,8 +3575,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3582,8 +3586,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3592,8 +3597,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3610,10 +3616,13 @@
         <v>2</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3630,8 +3639,11 @@
       <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3648,8 +3660,11 @@
       <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3658,8 +3673,9 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3668,8 +3684,9 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3678,8 +3695,9 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3688,8 +3706,9 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3698,8 +3717,9 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3708,8 +3728,9 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3718,8 +3739,9 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3728,8 +3750,9 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3738,8 +3761,9 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3748,8 +3772,9 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3758,8 +3783,9 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="17">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3767,9 +3793,10 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="17">
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="17">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3777,9 +3804,10 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="17">
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="17">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3787,9 +3815,10 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="17">
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="17">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3797,9 +3826,10 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="17">
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="17">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3807,9 +3837,10 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="17">
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="17">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3817,9 +3848,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="17">
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="17">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3827,9 +3859,10 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="17">
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="17">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3837,9 +3870,10 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="17">
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="17">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3847,9 +3881,10 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3858,6 +3893,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FC939239-244B-D64E-AAF0-0DC8D72480E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B42C9691-55D1-D841-AD0C-4F6F8C2388BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="136">
   <si>
     <t>object_scheme_field</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>默认测试字段方案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#page_code</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -665,6 +661,17 @@
     <t>成员</t>
     <rPh sb="0" eb="2">
       <t>m zu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue_subtask</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子任务</t>
+    <rPh sb="0" eb="2">
+      <t>r wu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3172,10 +3179,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2E0AA7-FB61-FE4F-9DAD-73A02D99AA08}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3289,18 +3296,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
@@ -3326,7 +3325,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -3402,14 +3401,14 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="17">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="17">
@@ -3492,25 +3491,15 @@
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="17">
+    <row r="29" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3522,7 +3511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED68D9B-63BE-8049-9AD5-C3BE6E35305D}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7:H9"/>
     </sheetView>
   </sheetViews>
@@ -3604,10 +3593,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>8</v>
@@ -3628,13 +3617,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>14</v>
@@ -3649,13 +3638,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>14</v>
@@ -3976,16 +3965,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3994,13 +3983,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4009,13 +3998,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4024,13 +4013,13 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4042,10 +4031,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4056,10 +4045,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0FEDC-CF1E-FE42-A550-B45169AB192F}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4136,19 +4125,19 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4160,13 +4149,13 @@
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4178,13 +4167,13 @@
         <v>81</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4193,16 +4182,16 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4211,16 +4200,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4229,16 +4218,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4247,16 +4236,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4268,13 +4257,13 @@
         <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4283,52 +4272,52 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="6" t="s">
-        <v>73</v>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="5" t="s">
-        <v>40</v>
+      <c r="E17" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17">
@@ -4340,13 +4329,13 @@
         <v>30</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17">
@@ -4355,16 +4344,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17">
@@ -4373,16 +4362,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>129</v>
+        <v>109</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17">
@@ -4391,16 +4380,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>130</v>
+      <c r="G21" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17">
@@ -4409,16 +4398,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>123</v>
+      <c r="G22" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17">
@@ -4427,16 +4416,16 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="13" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17">
@@ -4445,16 +4434,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>125</v>
+      <c r="G24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17">
@@ -4463,16 +4452,16 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="13" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17">
@@ -4481,16 +4470,16 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="13" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>127</v>
+      <c r="G26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17">
@@ -4499,16 +4488,16 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="13" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>131</v>
+      <c r="G27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17">
@@ -4517,16 +4506,16 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17">
@@ -4535,16 +4524,34 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="13" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B42C9691-55D1-D841-AD0C-4F6F8C2388BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FAF896FF-4C59-FA43-8DAF-85F8286F6F24}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="137">
   <si>
     <t>object_scheme_field</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -90,13 +90,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>issue_global</t>
-  </si>
-  <si>
-    <t>issue_global</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>agile_issue</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -158,10 +151,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>issue_bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>epic</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -335,10 +324,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>issue_story</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>benfitHypothesis</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -360,10 +345,6 @@
   </si>
   <si>
     <t>acceptanceCritera</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>issue_feature</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -554,10 +535,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>issue_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>故事</t>
     <rPh sb="0" eb="2">
       <t>gu s</t>
@@ -665,15 +642,41 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>issue_subtask</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>子任务</t>
     <rPh sb="0" eb="2">
       <t>r wu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtask</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>feature</t>
   </si>
 </sst>
 </file>
@@ -2040,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:JD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -2209,13 +2212,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>13</v>
@@ -2227,16 +2230,16 @@
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -2247,16 +2250,16 @@
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>14</v>
@@ -2265,16 +2268,16 @@
         <v>14</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -2288,31 +2291,31 @@
         <v>3</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -2323,34 +2326,34 @@
       <c r="C11" s="2"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -2361,34 +2364,34 @@
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -2417,16 +2420,16 @@
         <v>14</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -2437,13 +2440,13 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>13</v>
@@ -2455,16 +2458,16 @@
         <v>14</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -2475,34 +2478,34 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -2513,34 +2516,34 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -2551,34 +2554,34 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -2589,34 +2592,34 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -2627,13 +2630,13 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -2642,19 +2645,19 @@
         <v>14</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="M19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -2665,13 +2668,13 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>13</v>
@@ -2680,19 +2683,19 @@
         <v>14</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="M20" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -2703,16 +2706,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>14</v>
@@ -2721,16 +2724,16 @@
         <v>14</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -2741,34 +2744,34 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="M22" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -2779,34 +2782,34 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="M23" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
@@ -2817,16 +2820,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>14</v>
@@ -2835,16 +2838,16 @@
         <v>14</v>
       </c>
       <c r="K24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="M24" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -2855,16 +2858,16 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>14</v>
@@ -2873,16 +2876,16 @@
         <v>14</v>
       </c>
       <c r="K25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="M25" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -2893,34 +2896,34 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="M26" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -2931,34 +2934,34 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -2969,34 +2972,34 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -3007,13 +3010,13 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
@@ -3025,16 +3028,16 @@
         <v>14</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
@@ -3045,13 +3048,13 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>13</v>
@@ -3060,19 +3063,19 @@
         <v>14</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -3258,10 +3261,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>2</v>
@@ -3279,16 +3282,16 @@
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3593,10 +3596,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>8</v>
@@ -3617,19 +3620,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3638,19 +3641,19 @@
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3965,16 +3968,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3983,13 +3986,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3998,13 +4001,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4013,13 +4016,13 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4031,10 +4034,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4047,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0FEDC-CF1E-FE42-A550-B45169AB192F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4125,19 +4128,19 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4146,16 +4149,16 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4164,16 +4167,16 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4182,16 +4185,16 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4200,16 +4203,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4218,16 +4221,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4236,16 +4239,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4254,16 +4257,16 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4272,16 +4275,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
@@ -4290,16 +4293,16 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4308,16 +4311,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="6" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17">
@@ -4326,16 +4329,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="13" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17">
@@ -4344,16 +4347,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="13" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17">
@@ -4362,16 +4365,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17">
@@ -4380,16 +4383,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17">
@@ -4398,16 +4401,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17">
@@ -4416,16 +4419,16 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17">
@@ -4434,16 +4437,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17">
@@ -4452,16 +4455,16 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17">
@@ -4470,16 +4473,16 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17">
@@ -4488,16 +4491,16 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17">
@@ -4512,10 +4515,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17">
@@ -4524,16 +4527,16 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17">
@@ -4542,16 +4545,16 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FAF896FF-4C59-FA43-8DAF-85F8286F6F24}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{172C65D8-788B-A040-9C28-EADA0A88A67F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:JD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>

--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{172C65D8-788B-A040-9C28-EADA0A88A67F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{012F5451-37B2-7443-A41B-A1ABC108B26F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -661,10 +661,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>subtask</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>feature</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -677,6 +673,10 @@
   </si>
   <si>
     <t>feature</t>
+  </si>
+  <si>
+    <t>sub_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2043,7 +2043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:JD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>15</v>
@@ -2268,7 +2268,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>15</v>
@@ -2306,7 +2306,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>15</v>
@@ -2344,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>15</v>
@@ -2420,7 +2420,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>15</v>
@@ -2458,7 +2458,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>15</v>
@@ -2496,7 +2496,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>15</v>
@@ -2534,7 +2534,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>15</v>
@@ -2610,7 +2610,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>15</v>
@@ -2648,7 +2648,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>15</v>
@@ -2686,7 +2686,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>15</v>
@@ -2762,7 +2762,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>15</v>
@@ -2800,7 +2800,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>15</v>
@@ -2838,7 +2838,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>15</v>
@@ -2876,7 +2876,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>15</v>
@@ -2914,7 +2914,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>15</v>
@@ -2952,7 +2952,7 @@
         <v>16</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>15</v>
@@ -2990,7 +2990,7 @@
         <v>16</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>15</v>
@@ -3028,7 +3028,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>15</v>
@@ -3066,7 +3066,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>15</v>
@@ -4050,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0FEDC-CF1E-FE42-A550-B45169AB192F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4257,7 +4257,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>104</v>
@@ -4275,7 +4275,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>104</v>
@@ -4365,7 +4365,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>104</v>

--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{012F5451-37B2-7443-A41B-A1ABC108B26F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1948D3ED-0878-4340-91AD-15E481F6149A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,10 +313,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>storyPoint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>故事点</t>
     <rPh sb="0" eb="2">
       <t>gu shi</t>
@@ -676,6 +672,10 @@
   </si>
   <si>
     <t>sub_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>storyPoints</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:JD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>15</v>
@@ -2268,7 +2268,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>15</v>
@@ -2306,7 +2306,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>15</v>
@@ -2344,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>15</v>
@@ -2364,13 +2364,13 @@
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>60</v>
@@ -2382,7 +2382,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>15</v>
@@ -2420,7 +2420,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>15</v>
@@ -2458,7 +2458,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>15</v>
@@ -2496,7 +2496,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>15</v>
@@ -2534,7 +2534,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>15</v>
@@ -2572,7 +2572,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>15</v>
@@ -2610,7 +2610,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>15</v>
@@ -2648,7 +2648,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>15</v>
@@ -2686,7 +2686,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>15</v>
@@ -2762,7 +2762,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>15</v>
@@ -2800,7 +2800,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>15</v>
@@ -2838,7 +2838,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>15</v>
@@ -2876,7 +2876,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>15</v>
@@ -2896,13 +2896,13 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>50</v>
@@ -2914,7 +2914,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>15</v>
@@ -2934,13 +2934,13 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>59</v>
@@ -2952,7 +2952,7 @@
         <v>16</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>15</v>
@@ -2972,13 +2972,13 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>59</v>
@@ -2990,7 +2990,7 @@
         <v>16</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>15</v>
@@ -3010,13 +3010,13 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
@@ -3028,7 +3028,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>15</v>
@@ -3048,13 +3048,13 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="G30" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>13</v>
@@ -3066,7 +3066,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>15</v>
@@ -3261,10 +3261,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>2</v>
@@ -3285,7 +3285,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -3596,10 +3596,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>8</v>
@@ -3620,13 +3620,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>14</v>
@@ -3641,13 +3641,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>14</v>
@@ -3968,16 +3968,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3986,13 +3986,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4001,13 +4001,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4016,13 +4016,13 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4034,10 +4034,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4050,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0FEDC-CF1E-FE42-A550-B45169AB192F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4128,19 +4128,19 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4152,13 +4152,13 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4167,16 +4167,16 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4185,16 +4185,16 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4203,16 +4203,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4221,16 +4221,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4239,16 +4239,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4257,16 +4257,16 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4275,16 +4275,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
@@ -4296,13 +4296,13 @@
         <v>37</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4311,16 +4311,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17">
@@ -4329,16 +4329,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17">
@@ -4347,16 +4347,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17">
@@ -4365,16 +4365,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17">
@@ -4383,16 +4383,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17">
@@ -4401,16 +4401,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17">
@@ -4425,10 +4425,10 @@
         <v>4</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17">
@@ -4437,16 +4437,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17">
@@ -4461,10 +4461,10 @@
         <v>4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17">
@@ -4479,10 +4479,10 @@
         <v>4</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17">
@@ -4497,10 +4497,10 @@
         <v>4</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17">
@@ -4515,10 +4515,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17">
@@ -4533,10 +4533,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17">
@@ -4551,10 +4551,10 @@
         <v>4</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1948D3ED-0878-4340-91AD-15E481F6149A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79D7B02B-E00B-164B-A6D4-D56AB5ED936C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -294,10 +294,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>estimateTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>预估时间</t>
     <rPh sb="0" eb="2">
       <t>yu gu</t>
@@ -676,6 +672,10 @@
   </si>
   <si>
     <t>storyPoints</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>remainingTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:JD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>15</v>
@@ -2268,7 +2268,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>15</v>
@@ -2297,7 +2297,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>14</v>
@@ -2306,7 +2306,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>15</v>
@@ -2326,16 +2326,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>14</v>
@@ -2344,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>15</v>
@@ -2364,16 +2364,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>14</v>
@@ -2382,7 +2382,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>15</v>
@@ -2420,7 +2420,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>15</v>
@@ -2458,7 +2458,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>15</v>
@@ -2496,7 +2496,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>15</v>
@@ -2534,7 +2534,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>15</v>
@@ -2572,7 +2572,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>15</v>
@@ -2610,7 +2610,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>15</v>
@@ -2648,7 +2648,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>15</v>
@@ -2686,7 +2686,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>15</v>
@@ -2762,7 +2762,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>15</v>
@@ -2800,7 +2800,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>15</v>
@@ -2838,7 +2838,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>15</v>
@@ -2876,7 +2876,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>15</v>
@@ -2896,13 +2896,13 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>50</v>
@@ -2914,7 +2914,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>15</v>
@@ -2934,16 +2934,16 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>14</v>
@@ -2952,7 +2952,7 @@
         <v>16</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>15</v>
@@ -2972,16 +2972,16 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>14</v>
@@ -2990,7 +2990,7 @@
         <v>16</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>15</v>
@@ -3010,13 +3010,13 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
@@ -3028,7 +3028,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>15</v>
@@ -3048,13 +3048,13 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="G30" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>13</v>
@@ -3066,7 +3066,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>15</v>
@@ -3261,10 +3261,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>2</v>
@@ -3285,7 +3285,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -3596,10 +3596,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>8</v>
@@ -3620,13 +3620,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>14</v>
@@ -3641,13 +3641,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>14</v>
@@ -3968,16 +3968,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3986,13 +3986,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4001,13 +4001,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4016,13 +4016,13 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4034,10 +4034,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4050,7 +4050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0FEDC-CF1E-FE42-A550-B45169AB192F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -4128,19 +4128,19 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4152,13 +4152,13 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4167,16 +4167,16 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4185,16 +4185,16 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4203,16 +4203,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4221,16 +4221,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4239,16 +4239,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4257,16 +4257,16 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4275,16 +4275,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
@@ -4296,13 +4296,13 @@
         <v>37</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4311,16 +4311,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17">
@@ -4329,16 +4329,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17">
@@ -4347,16 +4347,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17">
@@ -4365,16 +4365,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17">
@@ -4383,16 +4383,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17">
@@ -4401,16 +4401,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17">
@@ -4425,10 +4425,10 @@
         <v>4</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17">
@@ -4437,16 +4437,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17">
@@ -4455,16 +4455,16 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17">
@@ -4479,10 +4479,10 @@
         <v>4</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17">
@@ -4491,16 +4491,16 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17">
@@ -4515,10 +4515,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17">
@@ -4533,10 +4533,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17">
@@ -4551,10 +4551,10 @@
         <v>4</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79D7B02B-E00B-164B-A6D4-D56AB5ED936C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{927071D7-369E-284C-98C5-9373DD359AAD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -375,13 +375,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>默认敏捷字段方案</t>
-    <rPh sb="0" eb="2">
-      <t>w t l x</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#page_code</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -391,14 +384,6 @@
   </si>
   <si>
     <t>agile_issue_edit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷问题创建页面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷问题编辑页面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -469,39 +454,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>敏捷问题创建页面</t>
-    <rPh sb="0" eb="1">
-      <t>m jie</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷问题编辑页面</t>
-    <rPh sb="0" eb="8">
-      <t>m jie</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_issue_create</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>test_issue_edit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试问题创建页面</t>
-    <rPh sb="0" eb="8">
-      <t>c s</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试问题编辑页面</t>
-    <rPh sb="0" eb="8">
-      <t>c sm jie</t>
-    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -676,6 +633,55 @@
   </si>
   <si>
     <t>remainingTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面（创建）</t>
+    <rPh sb="0" eb="6">
+      <t>c j</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面（编辑）</t>
+    <rPh sb="0" eb="6">
+      <t>bian ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题字段方案</t>
+    <rPh sb="0" eb="15">
+      <t>w ti</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面（创建）</t>
+    <rPh sb="0" eb="1">
+      <t>m jie</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面（编辑）</t>
+    <rPh sb="0" eb="6">
+      <t>m jie</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题页面（创建）</t>
+    <rPh sb="0" eb="6">
+      <t>c s</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题页面（编辑）</t>
+    <rPh sb="0" eb="6">
+      <t>c sm jie</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2043,7 +2049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:JD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2230,7 +2236,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>15</v>
@@ -2268,7 +2274,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>15</v>
@@ -2306,7 +2312,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>15</v>
@@ -2326,7 +2332,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>57</v>
@@ -2344,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>15</v>
@@ -2364,7 +2370,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>60</v>
@@ -2382,7 +2388,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>15</v>
@@ -2420,7 +2426,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>15</v>
@@ -2458,7 +2464,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>15</v>
@@ -2496,7 +2502,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>15</v>
@@ -2534,7 +2540,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>15</v>
@@ -2572,7 +2578,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>15</v>
@@ -2610,7 +2616,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>15</v>
@@ -2648,7 +2654,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>15</v>
@@ -2686,7 +2692,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>15</v>
@@ -2762,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>15</v>
@@ -2800,7 +2806,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>15</v>
@@ -2838,7 +2844,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>15</v>
@@ -2876,7 +2882,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>15</v>
@@ -2914,7 +2920,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>15</v>
@@ -2952,7 +2958,7 @@
         <v>16</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>15</v>
@@ -2990,7 +2996,7 @@
         <v>16</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>15</v>
@@ -3028,7 +3034,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>15</v>
@@ -3066,7 +3072,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>15</v>
@@ -3185,7 +3191,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3285,7 +3291,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -3515,13 +3521,15 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="8" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3596,10 +3604,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>8</v>
@@ -3620,13 +3628,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>14</v>
@@ -3641,13 +3649,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>14</v>
@@ -3968,16 +3976,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3986,13 +3994,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4001,13 +4009,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4016,13 +4024,13 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4034,10 +4042,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4050,8 +4058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0FEDC-CF1E-FE42-A550-B45169AB192F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4128,19 +4136,19 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4152,13 +4160,13 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4170,13 +4178,13 @@
         <v>74</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4185,16 +4193,16 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4203,16 +4211,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4221,16 +4229,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4239,16 +4247,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4257,16 +4265,16 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4275,16 +4283,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
@@ -4296,13 +4304,13 @@
         <v>37</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4311,16 +4319,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17">
@@ -4329,16 +4337,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17">
@@ -4347,16 +4355,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17">
@@ -4365,16 +4373,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17">
@@ -4383,16 +4391,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17">
@@ -4401,16 +4409,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17">
@@ -4425,10 +4433,10 @@
         <v>4</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17">
@@ -4437,16 +4445,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17">
@@ -4461,10 +4469,10 @@
         <v>4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17">
@@ -4479,10 +4487,10 @@
         <v>4</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17">
@@ -4497,10 +4505,10 @@
         <v>4</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17">
@@ -4515,10 +4523,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17">
@@ -4533,10 +4541,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17">
@@ -4551,10 +4559,10 @@
         <v>4</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{927071D7-369E-284C-98C5-9373DD359AAD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D501F88-D7C3-1C46-B1DC-E3E4D43097CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="foundation_loopup_value" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -636,22 +637,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>敏捷问题页面（创建）</t>
-    <rPh sb="0" eb="6">
-      <t>c j</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷问题页面（编辑）</t>
-    <rPh sb="0" eb="6">
-      <t>bian ji</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>敏捷问题字段方案</t>
-    <rPh sb="0" eb="15">
+    <rPh sb="0" eb="8">
       <t>w ti</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -681,6 +668,20 @@
     <t>测试问题页面（编辑）</t>
     <rPh sb="0" eb="6">
       <t>c sm jie</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面【创建】</t>
+    <rPh sb="0" eb="6">
+      <t>c j</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面【编辑】</t>
+    <rPh sb="0" eb="6">
+      <t>bian ji</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3291,7 +3292,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -3520,8 +3521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED68D9B-63BE-8049-9AD5-C3BE6E35305D}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3634,7 +3635,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>14</v>
@@ -3655,7 +3656,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>14</v>
@@ -4058,7 +4059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0FEDC-CF1E-FE42-A550-B45169AB192F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -4199,10 +4200,10 @@
         <v>91</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4217,10 +4218,10 @@
         <v>91</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4235,10 +4236,10 @@
         <v>91</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4253,10 +4254,10 @@
         <v>91</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:8">

--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D501F88-D7C3-1C46-B1DC-E3E4D43097CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A559C883-4A0F-BF4A-AFC5-098091B74BB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="foundation_loopup_value" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -555,13 +554,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>成员（需要特定加载用户）</t>
-    <rPh sb="0" eb="2">
-      <t>m zu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>单选框</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -585,13 +577,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>成员</t>
-    <rPh sb="0" eb="2">
-      <t>m zu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>子任务</t>
     <rPh sb="0" eb="2">
       <t>r wu</t>
@@ -682,6 +667,20 @@
     <t>敏捷问题页面【编辑】</t>
     <rPh sb="0" eb="6">
       <t>bian ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员（需要特定加载用户）</t>
+    <rPh sb="0" eb="1">
+      <t>ren y</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <rPh sb="0" eb="2">
+      <t>ren y</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2237,7 +2236,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>15</v>
@@ -2275,7 +2274,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>15</v>
@@ -2313,7 +2312,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>15</v>
@@ -2333,7 +2332,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>57</v>
@@ -2351,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>15</v>
@@ -2371,7 +2370,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>60</v>
@@ -2389,7 +2388,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>15</v>
@@ -2427,7 +2426,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>15</v>
@@ -2465,7 +2464,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>15</v>
@@ -2503,7 +2502,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>15</v>
@@ -2541,7 +2540,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>15</v>
@@ -2579,7 +2578,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>15</v>
@@ -2617,7 +2616,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>15</v>
@@ -2655,7 +2654,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>15</v>
@@ -2693,7 +2692,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>15</v>
@@ -2769,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>15</v>
@@ -2807,7 +2806,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>15</v>
@@ -2845,7 +2844,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>15</v>
@@ -2883,7 +2882,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>15</v>
@@ -2921,7 +2920,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>15</v>
@@ -2959,7 +2958,7 @@
         <v>16</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>15</v>
@@ -2997,7 +2996,7 @@
         <v>16</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>15</v>
@@ -3035,7 +3034,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>15</v>
@@ -3073,7 +3072,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>15</v>
@@ -3292,7 +3291,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -3521,7 +3520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED68D9B-63BE-8049-9AD5-C3BE6E35305D}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -3635,7 +3634,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>14</v>
@@ -3656,7 +3655,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>14</v>
@@ -3899,6 +3898,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4059,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0FEDC-CF1E-FE42-A550-B45169AB192F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4200,10 +4200,10 @@
         <v>91</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4218,10 +4218,10 @@
         <v>91</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4236,10 +4236,10 @@
         <v>91</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4254,10 +4254,10 @@
         <v>91</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4266,7 +4266,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>95</v>
@@ -4284,16 +4284,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
@@ -4320,7 +4320,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>95</v>
@@ -4338,7 +4338,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>95</v>
@@ -4356,7 +4356,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>95</v>
@@ -4374,16 +4374,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17">
@@ -4398,10 +4398,10 @@
         <v>4</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17">
@@ -4416,10 +4416,10 @@
         <v>4</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17">
@@ -4524,10 +4524,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17">
@@ -4542,10 +4542,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17">
@@ -4560,10 +4560,10 @@
         <v>4</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2019-04-08-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/foundation-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A559C883-4A0F-BF4A-AFC5-098091B74BB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{209904A8-6233-6943-B15D-6DD21D4FD289}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="140">
   <si>
     <t>object_scheme_field</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -535,10 +535,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>日期选择器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>数字输入框</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -681,6 +677,31 @@
     <t>人员</t>
     <rPh sb="0" eb="2">
       <t>ren y</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择器</t>
+    <rPh sb="0" eb="13">
+      <t>shi j</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择器</t>
+    <rPh sb="0" eb="11">
+      <t>shi j</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择器</t>
+    <rPh sb="0" eb="1">
+      <t>ri q</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -744,7 +765,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -767,11 +788,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -794,6 +826,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2236,7 +2272,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>15</v>
@@ -2274,7 +2310,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>15</v>
@@ -2312,7 +2348,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>15</v>
@@ -2332,7 +2368,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>57</v>
@@ -2350,7 +2386,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>15</v>
@@ -2370,7 +2406,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>60</v>
@@ -2388,7 +2424,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>15</v>
@@ -2426,7 +2462,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>15</v>
@@ -2464,7 +2500,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>15</v>
@@ -2502,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>15</v>
@@ -2540,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>15</v>
@@ -2578,7 +2614,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>15</v>
@@ -2616,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>15</v>
@@ -2654,7 +2690,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>15</v>
@@ -2692,7 +2728,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>15</v>
@@ -2768,7 +2804,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>15</v>
@@ -2806,7 +2842,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>15</v>
@@ -2844,7 +2880,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>15</v>
@@ -2882,7 +2918,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>15</v>
@@ -2920,7 +2956,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>15</v>
@@ -2958,7 +2994,7 @@
         <v>16</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>15</v>
@@ -2996,7 +3032,7 @@
         <v>16</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>15</v>
@@ -3034,7 +3070,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>15</v>
@@ -3072,7 +3108,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>15</v>
@@ -3291,7 +3327,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -3634,7 +3670,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>14</v>
@@ -3655,7 +3691,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>14</v>
@@ -4057,10 +4093,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0FEDC-CF1E-FE42-A550-B45169AB192F}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4200,10 +4236,10 @@
         <v>91</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4218,10 +4254,10 @@
         <v>91</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4236,10 +4272,10 @@
         <v>91</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4254,10 +4290,10 @@
         <v>91</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4266,7 +4302,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>95</v>
@@ -4284,16 +4320,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
@@ -4320,7 +4356,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>95</v>
@@ -4338,7 +4374,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>95</v>
@@ -4356,7 +4392,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>95</v>
@@ -4374,16 +4410,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17">
@@ -4398,10 +4434,10 @@
         <v>4</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17">
@@ -4416,10 +4452,10 @@
         <v>4</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17">
@@ -4452,10 +4488,10 @@
         <v>4</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17">
@@ -4470,10 +4506,10 @@
         <v>4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17">
@@ -4488,10 +4524,10 @@
         <v>4</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17">
@@ -4506,10 +4542,10 @@
         <v>4</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17">
@@ -4524,10 +4560,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17">
@@ -4542,10 +4578,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17">
@@ -4560,10 +4596,24 @@
         <v>4</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17">
+      <c r="E31" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
